--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-document.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2902,17 +2902,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2921,26 +2921,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-document.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1633,11 +1633,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2870,17 +2870,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.75390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2889,26 +2889,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9936,7 +9936,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -13562,7 +13562,7 @@
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -17100,7 +17100,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>89</v>
@@ -17186,7 +17186,7 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>79</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>89</v>
@@ -20810,7 +20810,7 @@
         <v>79</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>79</v>
@@ -24348,7 +24348,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>89</v>
@@ -24434,7 +24434,7 @@
         <v>79</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>79</v>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>89</v>
@@ -28058,7 +28058,7 @@
         <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>79</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>89</v>
@@ -31682,7 +31682,7 @@
         <v>79</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>79</v>
@@ -35220,7 +35220,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>89</v>
@@ -35306,7 +35306,7 @@
         <v>79</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>79</v>
@@ -38844,7 +38844,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>89</v>
@@ -38930,7 +38930,7 @@
         <v>79</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>79</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-document.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -506,7 +506,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -591,7 +591,7 @@
     <t>Bundle.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
